--- a/examples/amazon-jp2/data.xlsx
+++ b/examples/amazon-jp2/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>107-61375547-6948120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A4:P70"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
@@ -715,7 +723,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" customHeight="1">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -761,8 +769,11 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="19.5" customHeight="1">
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19.5" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>17</v>
       </c>
@@ -805,8 +816,11 @@
       <c r="O2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1">
+      <c r="P2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="19.5" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>21</v>
       </c>
@@ -850,7 +864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19.5" customHeight="1">
+    <row r="4" spans="1:16" ht="19.5" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="F4" s="34"/>
@@ -858,7 +872,7 @@
       <c r="J4" s="1"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1">
+    <row r="5" spans="1:16" ht="19.5" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="F5" s="34"/>
@@ -867,7 +881,7 @@
       <c r="J5" s="1"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" ht="19.5" customHeight="1">
+    <row r="6" spans="1:16" ht="19.5" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="F6" s="34"/>
@@ -875,7 +889,7 @@
       <c r="J6" s="1"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="19.5" customHeight="1">
+    <row r="7" spans="1:16" ht="19.5" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
       <c r="F7" s="34"/>
@@ -884,7 +898,7 @@
       <c r="J7" s="1"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+    <row r="8" spans="1:16" ht="19.5" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="F8" s="34"/>
@@ -893,7 +907,7 @@
       <c r="J8" s="1"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1">
+    <row r="9" spans="1:16" ht="19.5" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="F9" s="34"/>
@@ -902,7 +916,7 @@
       <c r="J9" s="1"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+    <row r="10" spans="1:16" ht="19.5" customHeight="1">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="F10" s="34"/>
@@ -911,7 +925,7 @@
       <c r="J10" s="1"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1">
+    <row r="11" spans="1:16" ht="19.5" customHeight="1">
       <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="F11" s="34"/>
@@ -920,7 +934,7 @@
       <c r="J11" s="1"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+    <row r="12" spans="1:16" ht="19.5" customHeight="1">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="D12" s="9"/>
@@ -931,7 +945,7 @@
       <c r="J12" s="1"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+    <row r="13" spans="1:16" ht="19.5" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
       <c r="F13" s="34"/>
@@ -939,7 +953,7 @@
       <c r="J13" s="1"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1">
+    <row r="14" spans="1:16" ht="19.5" customHeight="1">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="F14" s="34"/>
@@ -947,7 +961,7 @@
       <c r="J14" s="1"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:16" ht="19.5" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="39"/>
       <c r="F15" s="39"/>
@@ -956,7 +970,7 @@
       <c r="J15" s="31"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1">
       <c r="A16" s="33"/>
       <c r="B16" s="39"/>
       <c r="F16" s="39"/>
